--- a/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7406226601601258</v>
+        <v>0.7393155758409601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8481288386417672</v>
+        <v>0.8485825448313186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8302164491553551</v>
+        <v>0.8292024777426863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8154902709625123</v>
+        <v>0.8129132676688813</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8899304312298764</v>
+        <v>0.8890029644537019</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8633650802257701</v>
+        <v>0.864920442085427</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7882286041261559</v>
+        <v>0.7892327173899487</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8798150354561691</v>
+        <v>0.8792266667479812</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8571932645606938</v>
+        <v>0.8571285429449645</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7936294398473135</v>
+        <v>0.7946985650825932</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8921145607365946</v>
+        <v>0.8920389538274242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8820648260165331</v>
+        <v>0.8814115925550757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8557895596334267</v>
+        <v>0.855370841223181</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9235844592346414</v>
+        <v>0.9227964719207593</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9060968861795845</v>
+        <v>0.9062322953316058</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8233115885655862</v>
+        <v>0.8226879088628453</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.904264809408423</v>
+        <v>0.9059217019813359</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8894600984647874</v>
+        <v>0.889607548558384</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7324400722739427</v>
+        <v>0.7358164854185231</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7978188713145289</v>
+        <v>0.8001436386637579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7526183146753119</v>
+        <v>0.7534528611237598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7733997578112444</v>
+        <v>0.7750190173645715</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8286899658398423</v>
+        <v>0.8274484169218879</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7916691878366601</v>
+        <v>0.7897865462802097</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7601775396478121</v>
+        <v>0.7608271019800351</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8173747008294877</v>
+        <v>0.8186187406994684</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7776006016923613</v>
+        <v>0.7775201920600152</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7764411047286934</v>
+        <v>0.7768506254105914</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8349451053596479</v>
+        <v>0.8341964459423613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7905079945421658</v>
+        <v>0.7910239283469445</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8155183201554062</v>
+        <v>0.8138190146928982</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8655037493157225</v>
+        <v>0.8660190291954357</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8282109566152035</v>
+        <v>0.8258938872619518</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7884377936944504</v>
+        <v>0.7892164237227589</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8436784031529334</v>
+        <v>0.8445669548247745</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8030498222907089</v>
+        <v>0.8039551612142138</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7329227185238756</v>
+        <v>0.7333095327258107</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7923574690285856</v>
+        <v>0.7911402991505788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7887524100490394</v>
+        <v>0.790196745512443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8003731070079274</v>
+        <v>0.7981578040822508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8717984150364658</v>
+        <v>0.8693647490076888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7925420339780268</v>
+        <v>0.7893177394001109</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7752985882325653</v>
+        <v>0.7768463153186163</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8419901528056543</v>
+        <v>0.8409654110798958</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8008834682414401</v>
+        <v>0.7991036990395378</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8054378069740772</v>
+        <v>0.8079690721416126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.862743815402779</v>
+        <v>0.8654789289290408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8562401293263802</v>
+        <v>0.8558984633269537</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8696080902011982</v>
+        <v>0.8671615781941173</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9312597233362052</v>
+        <v>0.9312671192094278</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8590717944236383</v>
+        <v>0.8558152135862109</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8253096803156879</v>
+        <v>0.8267880215271668</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8875662062098917</v>
+        <v>0.8902270567830514</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8464471626942013</v>
+        <v>0.8460501237163297</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8197444973656507</v>
+        <v>0.8222441554890356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7861002688501276</v>
+        <v>0.7856011565706678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8649793354172173</v>
+        <v>0.8667416634834957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.820174093237007</v>
+        <v>0.819924991087108</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8466222270650086</v>
+        <v>0.8473598674365209</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8065257274364618</v>
+        <v>0.8073495080612897</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8467844887943597</v>
+        <v>0.8480963342119762</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8149677376107217</v>
+        <v>0.8145766330751468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8885614758791959</v>
+        <v>0.8891992202854032</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8465572102158797</v>
+        <v>0.8458122492715566</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8649953418836137</v>
+        <v>0.8644563609171351</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8259526155528302</v>
+        <v>0.8275226156081088</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>763346</v>
+        <v>761999</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>824025</v>
+        <v>824466</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>622959</v>
+        <v>622198</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1071666</v>
+        <v>1068279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1189569</v>
+        <v>1188329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>857823</v>
+        <v>859369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1848253</v>
+        <v>1850607</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2030859</v>
+        <v>2029500</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1494892</v>
+        <v>1494779</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>817979</v>
+        <v>819081</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>866761</v>
+        <v>866687</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>661864</v>
+        <v>661373</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1124625</v>
+        <v>1124074</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1234554</v>
+        <v>1233501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>900281</v>
+        <v>900415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1930516</v>
+        <v>1929053</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2087295</v>
+        <v>2091120</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1551163</v>
+        <v>1551420</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1238983</v>
+        <v>1244695</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1566118</v>
+        <v>1570681</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1560611</v>
+        <v>1562341</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1227086</v>
+        <v>1229655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1451503</v>
+        <v>1449328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1570315</v>
+        <v>1566580</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2492011</v>
+        <v>2494140</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3036189</v>
+        <v>3040810</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3154822</v>
+        <v>3154496</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1313415</v>
+        <v>1314107</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1638996</v>
+        <v>1637527</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1639178</v>
+        <v>1640247</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1293912</v>
+        <v>1291216</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1515984</v>
+        <v>1516887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1642797</v>
+        <v>1638201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>2584654</v>
+        <v>2587206</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3133896</v>
+        <v>3137196</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3258073</v>
+        <v>3261746</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>404139</v>
+        <v>404353</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>380443</v>
+        <v>379859</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>431358</v>
+        <v>432148</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>381307</v>
+        <v>380252</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>399834</v>
+        <v>398718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>435217</v>
+        <v>433446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>796867</v>
+        <v>798458</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>790437</v>
+        <v>789475</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>877790</v>
+        <v>875839</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>444125</v>
+        <v>445521</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>414239</v>
+        <v>415552</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>468266</v>
+        <v>468079</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>414292</v>
+        <v>413126</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>427105</v>
+        <v>427108</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>471751</v>
+        <v>469962</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>848270</v>
+        <v>849789</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>833222</v>
+        <v>835720</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>927729</v>
+        <v>927294</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2799198</v>
+        <v>2807734</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2649801</v>
+        <v>2648119</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3067989</v>
+        <v>3074240</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2892156</v>
+        <v>2891278</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5893856</v>
+        <v>5898991</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5562680</v>
+        <v>5568361</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2891532</v>
+        <v>2896012</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2747108</v>
+        <v>2745790</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3151632</v>
+        <v>3153894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2985190</v>
+        <v>2982563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6021763</v>
+        <v>6018011</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5696669</v>
+        <v>5707497</v>
       </c>
     </row>
     <row r="20">
